--- a/Checklista.xlsx
+++ b/Checklista.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Czynność</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Nowe licencje</t>
   </si>
 </sst>
 </file>
@@ -382,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,6 +430,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
